--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840147.8681318468</v>
+        <v>872955.841817381</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11394496.91692287</v>
+        <v>11617793.60898219</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5893755.711989314</v>
+        <v>6186615.181620606</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9523299.386198983</v>
+        <v>9378165.348317249</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>216.0714930384675</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>170.1373854189895</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17.2351439220096</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.8529351706617</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1767361399376</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2137866807357</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>62.22298966435189</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30.01544507406479</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>150.6989228876907</v>
+        <v>77.43213079320299</v>
       </c>
       <c r="T3" t="n">
-        <v>195.6111220571264</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8670577071278</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.22280754686588</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>99.03978753465321</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>412.1383958702795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>136.9126343540981</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.2439440137759</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>186.5659243434243</v>
       </c>
       <c r="X5" t="n">
-        <v>273.2201349313471</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>135.6504451218145</v>
       </c>
       <c r="H6" t="n">
-        <v>29.36682762385458</v>
+        <v>95.88393267880259</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>31.10445949633024</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>140.2351005103621</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>171.9253905013261</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8299957624619</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.980384243200308</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.83520379045569</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>199.2800705020449</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.8808174191965</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2416067350983</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>71.494386078725</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>47.13606867764454</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1347,7 +1347,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>115.3013361984553</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>103.3387326418233</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>265.1843234240117</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>12.74710637510995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247631</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.98723076369654</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>103.8101409236872</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>193.1994278308468</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>193.5586465650667</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>94.67055111186143</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>209.7685543727538</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>9.099193441179702</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>248.2949166645728</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2019,10 +2019,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.98723076369677</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>74.75724224607676</v>
       </c>
     </row>
     <row r="20">
@@ -2089,10 +2089,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>252.2078066367778</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>305.9840058034964</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>137.2614579387385</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>157.1747158471181</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>167.0871020271705</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>190.1921129400365</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>94.29644372182837</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,13 +2532,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>15.44847849679185</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>64.37012338318959</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>190.1921129400374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>140.5401046134631</v>
       </c>
       <c r="U28" t="n">
-        <v>34.98723076369722</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>359.3599057694628</v>
       </c>
       <c r="G29" t="n">
-        <v>219.1834685212291</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>18.02571356436873</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,19 +3006,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>59.91108870906547</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>131.0573912450696</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>77.42639794035743</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>41.20483001359412</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>138.6444210303392</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>62.3575491464568</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>294.4231613584432</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.6083783618541</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3480,16 +3480,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>44.97789604059989</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>136.4159137733187</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>89.86676627008457</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>100.4748474648629</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>282.3939120001637</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>235.9955072668619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>11.42490606886662</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>60.48910589095189</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>222.8039220598681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>36.41670903610054</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320712</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>627.766518546943</v>
+        <v>1019.876888823521</v>
       </c>
       <c r="C2" t="n">
-        <v>627.766518546943</v>
+        <v>1019.876888823521</v>
       </c>
       <c r="D2" t="n">
-        <v>269.5008199401925</v>
+        <v>1019.876888823521</v>
       </c>
       <c r="E2" t="n">
-        <v>51.2467865680031</v>
+        <v>634.0886362252768</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2467865680031</v>
+        <v>223.1027314356692</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>216.8324092840274</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K2" t="n">
-        <v>264.8431798929637</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L2" t="n">
-        <v>774.7911504989772</v>
+        <v>610.4341993187981</v>
       </c>
       <c r="M2" t="n">
-        <v>1358.813069725878</v>
+        <v>1242.15201030211</v>
       </c>
       <c r="N2" t="n">
-        <v>1937.653076636176</v>
+        <v>1869.459678361956</v>
       </c>
       <c r="O2" t="n">
-        <v>2439.047643360795</v>
+        <v>2416.620883129034</v>
       </c>
       <c r="P2" t="n">
-        <v>2510.721201889676</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q2" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R2" t="n">
-        <v>2544.930092115297</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2544.930092115297</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2328.917026286345</v>
+        <v>2347.539466667867</v>
       </c>
       <c r="U2" t="n">
-        <v>2075.203151397519</v>
+        <v>2093.847763413018</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.140264053949</v>
+        <v>1762.784876069447</v>
       </c>
       <c r="W2" t="n">
-        <v>1391.371608783835</v>
+        <v>1410.016220799333</v>
       </c>
       <c r="X2" t="n">
-        <v>1017.905850522755</v>
+        <v>1410.016220799333</v>
       </c>
       <c r="Y2" t="n">
-        <v>627.766518546943</v>
+        <v>1019.876888823521</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>880.8474267163131</v>
+        <v>964.6684709946088</v>
       </c>
       <c r="C3" t="n">
-        <v>706.3943974351861</v>
+        <v>790.2154417134818</v>
       </c>
       <c r="D3" t="n">
-        <v>557.4599877739348</v>
+        <v>641.2810320522306</v>
       </c>
       <c r="E3" t="n">
-        <v>398.2225327684793</v>
+        <v>482.0435770467751</v>
       </c>
       <c r="F3" t="n">
-        <v>251.6879747953643</v>
+        <v>335.5090190736601</v>
       </c>
       <c r="G3" t="n">
-        <v>114.0982912794697</v>
+        <v>198.067621432882</v>
       </c>
       <c r="H3" t="n">
-        <v>51.2467865680031</v>
+        <v>97.15164357768663</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K3" t="n">
-        <v>251.6550081082715</v>
+        <v>118.8546062313602</v>
       </c>
       <c r="L3" t="n">
-        <v>724.4603703782644</v>
+        <v>623.2161460974787</v>
       </c>
       <c r="M3" t="n">
-        <v>1328.181148999431</v>
+        <v>1247.297767139118</v>
       </c>
       <c r="N3" t="n">
-        <v>1962.360132778469</v>
+        <v>1881.476750918157</v>
       </c>
       <c r="O3" t="n">
-        <v>2477.217251195731</v>
+        <v>2430.912759670879</v>
       </c>
       <c r="P3" t="n">
-        <v>2558.154270699999</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2532.020697012211</v>
+        <v>2541.227428802342</v>
       </c>
       <c r="S3" t="n">
-        <v>2379.79956278222</v>
+        <v>2463.013155273854</v>
       </c>
       <c r="T3" t="n">
-        <v>2182.212570805325</v>
+        <v>2266.023859433942</v>
       </c>
       <c r="U3" t="n">
-        <v>1954.064027666812</v>
+        <v>2037.885071945108</v>
       </c>
       <c r="V3" t="n">
-        <v>1718.911919435069</v>
+        <v>1802.732963713365</v>
       </c>
       <c r="W3" t="n">
-        <v>1464.674562706868</v>
+        <v>1548.495606985163</v>
       </c>
       <c r="X3" t="n">
-        <v>1256.823062501335</v>
+        <v>1340.644106779631</v>
       </c>
       <c r="Y3" t="n">
-        <v>1049.062763736381</v>
+        <v>1132.883808014677</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253.9303928239981</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="C4" t="n">
-        <v>253.9303928239981</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="D4" t="n">
-        <v>253.9303928239981</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="E4" t="n">
-        <v>106.017299241605</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="J4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K4" t="n">
-        <v>138.1386621581657</v>
+        <v>152.2947161636129</v>
       </c>
       <c r="L4" t="n">
-        <v>304.8567816908243</v>
+        <v>337.1277110644313</v>
       </c>
       <c r="M4" t="n">
-        <v>491.0267862272825</v>
+        <v>542.3973117836692</v>
       </c>
       <c r="N4" t="n">
-        <v>678.204700588137</v>
+        <v>748.2206766197735</v>
       </c>
       <c r="O4" t="n">
-        <v>835.0775046092326</v>
+        <v>922.3155720083723</v>
       </c>
       <c r="P4" t="n">
-        <v>945.7886068347286</v>
+        <v>1047.763148606988</v>
       </c>
       <c r="Q4" t="n">
-        <v>945.7886068347286</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="R4" t="n">
-        <v>945.7886068347286</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S4" t="n">
-        <v>945.7886068347286</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="T4" t="n">
-        <v>945.7886068347286</v>
+        <v>613.2230325702131</v>
       </c>
       <c r="U4" t="n">
-        <v>945.7886068347286</v>
+        <v>613.2230325702131</v>
       </c>
       <c r="V4" t="n">
-        <v>945.7886068347286</v>
+        <v>358.5385443643263</v>
       </c>
       <c r="W4" t="n">
-        <v>656.371436797768</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="X4" t="n">
-        <v>656.371436797768</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="Y4" t="n">
-        <v>435.5788576542378</v>
+        <v>69.12137432736571</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1212.38851953657</v>
+        <v>1247.496618268002</v>
       </c>
       <c r="C5" t="n">
-        <v>1212.38851953657</v>
+        <v>878.53410132759</v>
       </c>
       <c r="D5" t="n">
-        <v>854.1228209298199</v>
+        <v>878.53410132759</v>
       </c>
       <c r="E5" t="n">
-        <v>468.3345683315756</v>
+        <v>878.53410132759</v>
       </c>
       <c r="F5" t="n">
-        <v>468.3345683315756</v>
+        <v>467.5481965379824</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>137.895187349847</v>
       </c>
       <c r="K5" t="n">
-        <v>643.3537986017849</v>
+        <v>639.4011555325035</v>
       </c>
       <c r="L5" t="n">
-        <v>782.6824544430381</v>
+        <v>900.3556803915626</v>
       </c>
       <c r="M5" t="n">
-        <v>969.3818672684457</v>
+        <v>1222.387307295343</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518882</v>
+        <v>1554.24355097496</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>1903.979819153197</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625254</v>
+        <v>2444.125795562968</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2424.043738143491</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2212.686218937657</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2212.686218937657</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2212.686218937657</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>2024.235790307935</v>
       </c>
       <c r="X5" t="n">
-        <v>1602.527851512382</v>
+        <v>2024.235790307935</v>
       </c>
       <c r="Y5" t="n">
-        <v>1212.38851953657</v>
+        <v>1634.096458332123</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857312</v>
+        <v>945.6979933343533</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046042</v>
+        <v>771.2449640532263</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433529</v>
+        <v>622.3105543919751</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378974</v>
+        <v>463.0730993865195</v>
       </c>
       <c r="F6" t="n">
-        <v>264.2565034647824</v>
+        <v>316.5385414134045</v>
       </c>
       <c r="G6" t="n">
-        <v>126.8151058240044</v>
+        <v>179.517889775208</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>82.66543252389224</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>84.03613351570547</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>480.0537594270482</v>
       </c>
       <c r="L6" t="n">
-        <v>1003.695982596827</v>
+        <v>928.7560523619339</v>
       </c>
       <c r="M6" t="n">
-        <v>1637.874966375866</v>
+        <v>1212.739341731495</v>
       </c>
       <c r="N6" t="n">
-        <v>1836.53170802853</v>
+        <v>1518.647468667765</v>
       </c>
       <c r="O6" t="n">
-        <v>1996.044020697291</v>
+        <v>1776.273845612141</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2278.986800562861</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664977</v>
+        <v>2420.687711723022</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2247.025701115622</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>2018.914594284852</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104488</v>
+        <v>1783.76248605311</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376286</v>
+        <v>1529.525129324908</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170753</v>
+        <v>1321.673629119375</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405799</v>
+        <v>1113.913330354421</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>58.17029313655468</v>
       </c>
       <c r="K7" t="n">
-        <v>152.2947161636129</v>
+        <v>199.3845779594509</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1277110644313</v>
+        <v>435.6166787590989</v>
       </c>
       <c r="M7" t="n">
-        <v>542.3973117836692</v>
+        <v>695.0794299622257</v>
       </c>
       <c r="N7" t="n">
-        <v>748.2206766197735</v>
+        <v>953.8073532913593</v>
       </c>
       <c r="O7" t="n">
-        <v>922.3155720083723</v>
+        <v>1176.768171299195</v>
       </c>
       <c r="P7" t="n">
-        <v>1047.763148606988</v>
+        <v>1344.028986547562</v>
       </c>
       <c r="Q7" t="n">
-        <v>1051.181468027348</v>
+        <v>1376.396625060139</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>1309.896419211194</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>1108.603418704078</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>884.4813809069095</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>595.3484448108507</v>
       </c>
       <c r="V7" t="n">
-        <v>796.496979821461</v>
+        <v>340.6639566049637</v>
       </c>
       <c r="W7" t="n">
-        <v>507.0798097845004</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="X7" t="n">
-        <v>279.090258886483</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.29767974295291</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1223.1725826085</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="C8" t="n">
-        <v>1223.1725826085</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="D8" t="n">
-        <v>1223.1725826085</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="E8" t="n">
-        <v>837.3843300102556</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4801,19 +4801,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,7 +4834,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
         <v>1975.31341879663</v>
@@ -4843,13 +4843,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1596.63834086958</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1223.1725826085</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y8" t="n">
-        <v>1223.1725826085</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>997.7894887846204</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>743.1050005787336</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W10" t="n">
-        <v>453.6878305417729</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6878305417729</v>
+        <v>155.629344792067</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1904.487375535336</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>890.8133066586854</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>890.8133066586854</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>479.8274018690778</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>64.1226515933667</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>64.1226515933667</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410101</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066531</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796416</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535336</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.487375535336</v>
+        <v>1249.079005265436</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.0708164780106</v>
+        <v>640.9145283561485</v>
       </c>
       <c r="C13" t="n">
-        <v>679.1346335501037</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="D13" t="n">
-        <v>529.0179941377679</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574644</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1891.953910953445</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1700.268026780272</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T13" t="n">
-        <v>1478.501411349798</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U13" t="n">
-        <v>1478.501411349798</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V13" t="n">
-        <v>1478.501411349798</v>
+        <v>1111.980163223349</v>
       </c>
       <c r="W13" t="n">
-        <v>1478.501411349798</v>
+        <v>822.5629931863882</v>
       </c>
       <c r="X13" t="n">
-        <v>1250.51186045178</v>
+        <v>822.5629931863882</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.71928130825</v>
+        <v>822.5629931863882</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1575.915835277607</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C14" t="n">
-        <v>1206.953318337195</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D14" t="n">
-        <v>1206.953318337195</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E14" t="n">
-        <v>821.1650657389509</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609169</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993391</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267228</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923657</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W14" t="n">
-        <v>2339.520925514499</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X14" t="n">
-        <v>1966.055167253419</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y14" t="n">
-        <v>1575.915835277607</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>114.5432626034346</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>299.2648838844846</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>593.9684409159563</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>957.2304598751764</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>793.5809963705854</v>
+        <v>623.0447030767627</v>
       </c>
       <c r="C16" t="n">
-        <v>624.6448134426785</v>
+        <v>454.1085201488559</v>
       </c>
       <c r="D16" t="n">
-        <v>624.6448134426785</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E16" t="n">
-        <v>476.7317198602854</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F16" t="n">
-        <v>329.841772362375</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G16" t="n">
-        <v>162.1389357370939</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H16" t="n">
-        <v>162.1389357370939</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>912.4618731137234</v>
       </c>
       <c r="W16" t="n">
-        <v>1424.011591242373</v>
+        <v>623.0447030767627</v>
       </c>
       <c r="X16" t="n">
-        <v>1196.022040344355</v>
+        <v>623.0447030767627</v>
       </c>
       <c r="Y16" t="n">
-        <v>975.2294612008251</v>
+        <v>623.0447030767627</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1571.829289912211</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1202.866772971799</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1202.866772971799</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>817.078520373555</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218339</v>
@@ -5527,7 +5527,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939507</v>
@@ -5548,19 +5548,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V17" t="n">
-        <v>3074.802875483339</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W17" t="n">
-        <v>2722.034220213224</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X17" t="n">
-        <v>2348.568461952144</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y17" t="n">
-        <v>1958.429129976333</v>
+        <v>2014.778044008241</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
@@ -5594,28 +5594,28 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218339</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>1513.842048484845</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.501411349798</v>
+        <v>1348.774511177175</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.51186045178</v>
+        <v>1348.774511177175</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.71928130825</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1891.353293732294</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C20" t="n">
-        <v>1522.390776791882</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D20" t="n">
-        <v>1164.125078185132</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E20" t="n">
-        <v>778.3368255868877</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218339</v>
@@ -5755,10 +5755,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
@@ -5767,7 +5767,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
@@ -5794,10 +5794,10 @@
         <v>2277.953133796416</v>
       </c>
       <c r="X20" t="n">
-        <v>2277.953133796416</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y20" t="n">
-        <v>2277.953133796416</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="21">
@@ -5825,19 +5825,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5846,7 +5846,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
         <v>2407.41198488674</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697.9541770656748</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C22" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218339</v>
@@ -5916,19 +5916,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
         <v>1927.294548088492</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1596.960726603461</v>
       </c>
       <c r="U22" t="n">
-        <v>1513.842048484845</v>
+        <v>1307.857859729104</v>
       </c>
       <c r="V22" t="n">
-        <v>1259.157560278958</v>
+        <v>1053.173371523217</v>
       </c>
       <c r="W22" t="n">
-        <v>1259.157560278958</v>
+        <v>763.7562014862567</v>
       </c>
       <c r="X22" t="n">
-        <v>1100.395221039445</v>
+        <v>763.7562014862567</v>
       </c>
       <c r="Y22" t="n">
-        <v>879.6026418959145</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1032.061124352531</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C23" t="n">
-        <v>1032.061124352531</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>971.2814123723961</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y23" t="n">
-        <v>1418.660964416652</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>628.7269654071711</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C25" t="n">
-        <v>459.7907824792642</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D25" t="n">
-        <v>309.6741430669284</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E25" t="n">
-        <v>161.7610494845353</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>161.7610494845353</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U25" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V25" t="n">
-        <v>1259.157560278958</v>
+        <v>1119.304200633883</v>
       </c>
       <c r="W25" t="n">
-        <v>1259.157560278958</v>
+        <v>829.8870305969223</v>
       </c>
       <c r="X25" t="n">
-        <v>1031.168009380941</v>
+        <v>601.8974796989049</v>
       </c>
       <c r="Y25" t="n">
-        <v>810.3754302374108</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1506.396382525582</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C26" t="n">
-        <v>1137.43386558517</v>
+        <v>1343.379050624725</v>
       </c>
       <c r="D26" t="n">
-        <v>779.1681669784198</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>779.1681669784198</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6238,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y26" t="n">
-        <v>1506.396382525582</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6323,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6405,31 +6405,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1593.648962285558</v>
       </c>
       <c r="U28" t="n">
-        <v>1478.501411349798</v>
+        <v>1304.546095411201</v>
       </c>
       <c r="V28" t="n">
-        <v>1478.501411349798</v>
+        <v>1049.861607205314</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.501411349798</v>
+        <v>760.4444371683537</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.51186045178</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1698.509627919559</v>
+        <v>2255.174438931364</v>
       </c>
       <c r="C29" t="n">
-        <v>1329.547110979147</v>
+        <v>1886.211921990953</v>
       </c>
       <c r="D29" t="n">
-        <v>971.281412372397</v>
+        <v>1527.946223384202</v>
       </c>
       <c r="E29" t="n">
-        <v>585.4931597741527</v>
+        <v>1142.157970785958</v>
       </c>
       <c r="F29" t="n">
-        <v>585.4931597741527</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6484,31 +6484,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y29" t="n">
-        <v>1698.509627919559</v>
+        <v>2641.774278995486</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.4780323548191</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="C31" t="n">
-        <v>364.5418494269122</v>
+        <v>529.639588403983</v>
       </c>
       <c r="D31" t="n">
-        <v>214.4252100145765</v>
+        <v>379.5229489916472</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>231.6098554092541</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>84.71990791134377</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>1453.325797263567</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W31" t="n">
-        <v>1163.908627226606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X31" t="n">
-        <v>935.919076328589</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y31" t="n">
-        <v>715.1264971850588</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1986.901740067214</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C32" t="n">
-        <v>1617.939223126803</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>584.6815723082757</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>198.8933197100314</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>198.8933197100314</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>198.8933197100314</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
@@ -6703,13 +6703,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3137.106670368228</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>3137.106670368228</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
-        <v>2763.640912107148</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2373.501580131336</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>679.1346335501037</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218342</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1693.987623497547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1404.884756623191</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V34" t="n">
-        <v>1150.200268417304</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W34" t="n">
-        <v>860.7830983803434</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X34" t="n">
-        <v>860.7830983803434</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y34" t="n">
-        <v>860.7830983803434</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.416669135309</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C35" t="n">
-        <v>1590.416669135309</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="D35" t="n">
-        <v>1232.150970528558</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>540.4854446020504</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>129.4995398124428</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>1980.556001111121</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y35" t="n">
-        <v>1590.416669135309</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>531.2215399677106</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C37" t="n">
-        <v>531.2215399677106</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>381.1049005553748</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
         <v>381.1049005553748</v>
@@ -7086,13 +7086,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7128,19 +7128,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1705.527932658019</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1450.843444452132</v>
+        <v>1370.992847560834</v>
       </c>
       <c r="W37" t="n">
-        <v>1161.426274415171</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="X37" t="n">
-        <v>933.436723517154</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y37" t="n">
-        <v>712.6441443736238</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1934.181533884357</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C38" t="n">
-        <v>1565.219016943946</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D38" t="n">
-        <v>1206.953318337195</v>
+        <v>958.1473305693551</v>
       </c>
       <c r="E38" t="n">
-        <v>821.1650657389509</v>
+        <v>572.3590779711108</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>572.3590779711108</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>157.2866278161072</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>482.5946454693777</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
         <v>66.51211643218342</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>452.6479724696239</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.8553933260938</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.35562273557</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1320.35562273557</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V41" t="n">
-        <v>2755.806928794324</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W41" t="n">
-        <v>2470.560553036583</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>2097.094794775503</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1706.955462799692</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218342</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>986.3598813409312</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>696.9427113039706</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>468.9531604059532</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1292.833068744076</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C44" t="n">
-        <v>1292.833068744076</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D44" t="n">
-        <v>934.5673701373257</v>
+        <v>584.6815723082757</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>584.6815723082757</v>
       </c>
       <c r="F44" t="n">
         <v>523.5814653477182</v>
@@ -7648,13 +7648,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1679.432908808198</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>270.9995076393842</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>270.9995076393842</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>270.9995076393842</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>270.9995076393842</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218342</v>
@@ -7848,10 +7848,10 @@
         <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696239</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>452.6479724696239</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>319.2538912541072</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.43132885913517</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>20.10287086406315</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>157.8472878563037</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>449.0750350374088</v>
       </c>
       <c r="N3" t="n">
-        <v>478.1024745330035</v>
+        <v>439.9214566933068</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8227,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>178.7586225842971</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>50.21120086281593</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>16.81346196547079</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>224.1770392426307</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378117</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>229.1840647627247</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>40.56052230605552</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>129.7511347056858</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.9556134883062342</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22552,22 +22552,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>165.8588770337943</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.1912779163984</v>
+        <v>242.7795185269473</v>
       </c>
       <c r="H2" t="n">
-        <v>317.8508165002056</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>129.0738433901118</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>160.9051839800343</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22643,10 +22643,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.10163649139934</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50.50021053813168</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>70.53999045278857</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.19824047606537</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0438512720582</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>153.806342793806</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>126.9677502925957</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>26.39722440815669</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,22 +22749,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.852981398648012</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>134.7070685104702</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>207.5107385676106</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.8987694227521</v>
+        <v>124.3331171861055</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2673678245054</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>307.0679882453896</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>88.48260830710991</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>251.092505576248</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>162.6750443739887</v>
       </c>
       <c r="X5" t="n">
-        <v>96.51096574712193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22880,7 +22880,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.53999045278886</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22916,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>21.41506974593841</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.851595938737</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>166.5715646329282</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>149.6072852204501</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>112.7648029994859</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>47.63614001876883</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>293.7785056922826</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23083,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>302.1049000397685</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>170.9258179227453</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>115.2459207102715</v>
       </c>
     </row>
     <row r="11">
@@ -23260,13 +23260,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>100.0885683469959</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>52.96280629736054</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.9449219063508</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>148.3275024001408</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>161.4836137898362</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>155.6823221523464</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
-        <v>1.681869297976689</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>42.36908895107422</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>373.6346482223009</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>79.45734180556212</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>251.5357675728942</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>143.827411106018</v>
       </c>
     </row>
     <row r="20">
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>154.6682391049337</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>80.25393285255717</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.28749133743074</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>68.53493954191902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>187.5959395935124</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>191.7382571322253</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>71.72936453719986</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>236.6891648270362</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>290.3129182374934</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>196.0458257160162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>79.00884466270608</v>
       </c>
       <c r="U28" t="n">
-        <v>251.2246074419157</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>47.5161399722486</v>
       </c>
       <c r="G29" t="n">
-        <v>191.7382571322243</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>148.0000946946595</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>192.2265546147625</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>163.5503731422509</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>250.3258605297775</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,25 +25125,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>178.3441192625751</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>147.5674171752737</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>348.5641765069967</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>75.30793932002587</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2236018200831893</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>207.1597472832281</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>246.3179278901619</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>204.7409981172359</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>48.14062555334947</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>82.87935969080525</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>66.8470567172493</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>16.14213605696614</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>207.1597472832282</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>346.3869398507595</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>163.4340165961855</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>109.0043389868307</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>16.14213605696597</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>773377.6276227231</v>
+        <v>773371.781348552</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>773371.781348552</v>
+        <v>767287.7588307117</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>761671.8618622501</v>
+        <v>761671.8618622504</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841542.3321288793</v>
+        <v>761671.8618622501</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841542.3321288791</v>
+        <v>761671.8618622503</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.332128879</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288789</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.332128879</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841542.3321288791</v>
+        <v>841542.3321288795</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841542.3321288791</v>
+        <v>841542.3321288794</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288794</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288794</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288794</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841542.3321288791</v>
+        <v>841542.3321288793</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303238.7904811532</v>
+        <v>306942.7886296994</v>
       </c>
       <c r="C2" t="n">
-        <v>306942.7886296996</v>
+        <v>315291.7856594652</v>
       </c>
       <c r="D2" t="n">
         <v>321270.212019024</v>
       </c>
       <c r="E2" t="n">
+        <v>321270.2120190241</v>
+      </c>
+      <c r="F2" t="n">
+        <v>321270.212019024</v>
+      </c>
+      <c r="G2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="H2" t="n">
         <v>358046.9539194665</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="J2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="G2" t="n">
-        <v>358046.9539194665</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>358046.9539194668</v>
+      </c>
+      <c r="L2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="I2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="J2" t="n">
-        <v>358046.9539194664</v>
-      </c>
-      <c r="K2" t="n">
-        <v>358046.9539194664</v>
-      </c>
-      <c r="L2" t="n">
-        <v>358046.9539194667</v>
       </c>
       <c r="M2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="O2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="O2" t="n">
-        <v>358046.9539194667</v>
-      </c>
       <c r="P2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720788.9028693155</v>
+        <v>786555.9961629253</v>
       </c>
       <c r="C3" t="n">
-        <v>62149.06470475969</v>
+        <v>176341.6139140486</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>125837.1122654035</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171903</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>173363.8810341904</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.825677256623749e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45920.21121431062</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66317.15027850191</v>
+        <v>57672.47412540166</v>
       </c>
       <c r="C4" t="n">
-        <v>57672.47412540163</v>
+        <v>32119.28454381867</v>
       </c>
       <c r="D4" t="n">
+        <v>12563.18241499341</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12563.18241499341</v>
+      </c>
+      <c r="F4" t="n">
         <v>12563.1824149934</v>
       </c>
-      <c r="E4" t="n">
-        <v>6720.68327702995</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>6720.683277029948</v>
       </c>
-      <c r="G4" t="n">
-        <v>6720.683277029938</v>
-      </c>
       <c r="H4" t="n">
-        <v>6720.683277029948</v>
+        <v>6720.683277029953</v>
       </c>
       <c r="I4" t="n">
         <v>6720.683277029938</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84025.07533073143</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>89734.59144632312</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139327</v>
@@ -26490,10 +26490,10 @@
         <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-573978.4398401382</v>
+        <v>-623389.5905355322</v>
       </c>
       <c r="C6" t="n">
-        <v>95698.59204195991</v>
+        <v>16545.0807861353</v>
       </c>
       <c r="D6" t="n">
-        <v>-81143.21508073245</v>
+        <v>89409.39862659317</v>
       </c>
       <c r="E6" t="n">
-        <v>91470.76096579191</v>
+        <v>248874.1108919968</v>
       </c>
       <c r="F6" t="n">
-        <v>273543.7407829823</v>
+        <v>248874.1108919965</v>
       </c>
       <c r="G6" t="n">
-        <v>273543.7407829822</v>
+        <v>103308.4301170469</v>
       </c>
       <c r="H6" t="n">
-        <v>273543.7407829823</v>
+        <v>276672.3111512372</v>
       </c>
       <c r="I6" t="n">
-        <v>273543.7407829821</v>
+        <v>276672.3111512371</v>
       </c>
       <c r="J6" t="n">
-        <v>105938.5629729995</v>
+        <v>109067.1333412548</v>
       </c>
       <c r="K6" t="n">
-        <v>273543.7407829821</v>
+        <v>276672.3111512371</v>
       </c>
       <c r="L6" t="n">
-        <v>273543.7407829824</v>
+        <v>276672.3111512372</v>
       </c>
       <c r="M6" t="n">
-        <v>225991.4749895674</v>
+        <v>276672.3111512372</v>
       </c>
       <c r="N6" t="n">
-        <v>273543.7407829823</v>
+        <v>276672.3111512373</v>
       </c>
       <c r="O6" t="n">
-        <v>273543.7407829824</v>
+        <v>230752.0999369266</v>
       </c>
       <c r="P6" t="n">
-        <v>273543.7407829824</v>
+        <v>276672.3111512373</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.2255751857376</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>593.4761003380651</v>
+        <v>787.1299841578334</v>
       </c>
       <c r="D3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="E3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="F3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022923</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022924</v>
@@ -26810,25 +26810,25 @@
         <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022928</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.2255751857376</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>68.25052515232747</v>
+        <v>193.6538838197683</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>146.9349079597058</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.273736754432321e-13</v>
+      </c>
+      <c r="G3" t="n">
         <v>155.7118084757587</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.111459598736632</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>21.62398561556154</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>81.40204618029409</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J2" t="n">
-        <v>179.2074941182734</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>268.5855789327951</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>333.2041606276313</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>370.7538302666639</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N2" t="n">
-        <v>376.7530148515744</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>355.757188466637</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>303.6305296228263</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>228.0138827430706</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
-        <v>132.6339740191401</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>48.11488560621105</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
-        <v>9.242914393469611</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1689167678989305</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.129730482474983</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>10.91081808074523</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>38.8964223132834</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
-        <v>106.7347558026035</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>182.4266981284274</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L3" t="n">
-        <v>245.2952084865089</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>286.247938476227</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
-        <v>293.8240696503685</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>268.7916205386859</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>215.7289725701571</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
-        <v>144.2091050962803</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>70.14238907857835</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
-        <v>20.98424821614714</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>4.553606637695214</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07432437384703837</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9471280864005104</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>8.420829713633635</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I4" t="n">
-        <v>28.48272463466263</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>66.96195570851609</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
-        <v>110.0390631290774</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>140.8121156817632</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M4" t="n">
-        <v>148.4666326709454</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>144.9364279852709</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>133.8722498850467</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>114.5508369224762</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.30906185304637</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R4" t="n">
-        <v>42.5863228666993</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>16.50585946936162</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.046820005529453</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05166153198548244</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38583356919825</v>
+        <v>3.164341644855609</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055158</v>
+        <v>32.40681387037752</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651562</v>
+        <v>121.993281263296</v>
       </c>
       <c r="J5" t="n">
-        <v>202.4946418937401</v>
+        <v>268.569541680064</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779021</v>
+        <v>402.516123506802</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712531</v>
+        <v>499.356844120552</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074825</v>
+        <v>555.6307048472529</v>
       </c>
       <c r="N5" t="n">
-        <v>425.710248335967</v>
+        <v>564.621390545699</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822519</v>
+        <v>533.155968314666</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426701</v>
+        <v>455.0362839572931</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457577</v>
+        <v>341.7132988009014</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>198.7720758486613</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810517</v>
+        <v>72.10743523214727</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916534</v>
+        <v>13.85190555035544</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.2531473315884487</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840366</v>
+        <v>1.693072041396094</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>16.35151155769386</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182841</v>
+        <v>58.29217335508484</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847383</v>
+        <v>159.9581791390933</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070429</v>
+        <v>273.3940059126317</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1701353512822</v>
+        <v>367.6119798654108</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842454</v>
+        <v>428.9858413660191</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900653</v>
+        <v>440.3398200997676</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947077</v>
+        <v>402.8249080246225</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671574</v>
+        <v>323.3025023609788</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607457</v>
+        <v>216.119160933298</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080804</v>
+        <v>105.1189816579084</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784626</v>
+        <v>31.44807059347568</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>6.824268447557063</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.111386318512901</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888314</v>
+        <v>1.419414725530519</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207016</v>
+        <v>12.61988728698953</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784131</v>
+        <v>42.68567192777235</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490379</v>
+        <v>100.3526210950077</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3381075790241</v>
+        <v>164.9101835661821</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889954</v>
+        <v>211.0282583756919</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676927</v>
+        <v>222.4997101120249</v>
       </c>
       <c r="N7" t="n">
-        <v>163.7702163441091</v>
+        <v>217.2091643168659</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714137</v>
+        <v>200.6278195686229</v>
       </c>
       <c r="P7" t="n">
-        <v>129.436164572092</v>
+        <v>171.6717591678002</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104783</v>
+        <v>118.8566276078328</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937817</v>
+        <v>63.82204756794496</v>
       </c>
       <c r="S7" t="n">
-        <v>18.65071613685361</v>
+        <v>24.73652753492731</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522795</v>
+        <v>6.064772009084944</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.07742262139257386</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32581,7 +32581,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32630,16 +32630,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32648,19 +32648,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>167.2582047636609</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>48.49572788781455</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
-        <v>515.0989602080945</v>
+        <v>459.9899072553731</v>
       </c>
       <c r="M2" t="n">
-        <v>589.9211305322236</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>584.6868756669676</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O2" t="n">
-        <v>506.4591583076956</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
-        <v>72.39753386755677</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>52.13952172775632</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>202.4325470103721</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
-        <v>477.5811740100939</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>609.8189683042085</v>
+        <v>630.3854757996359</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>520.057695370971</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>81.75456515582681</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.227331010258752</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>87.7695713031946</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4021409420793</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>188.050509632786</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>189.0686003644995</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>158.4573777990864</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>111.8293961873697</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>87.52363715337771</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>506.5716850329862</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>263.5904291505648</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>325.2844716199802</v>
       </c>
       <c r="N5" t="n">
-        <v>375.0558073236733</v>
+        <v>335.2083269491081</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>353.2689577557952</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>545.6019963735062</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>119.407608926452</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>33.12055247242662</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>400.0178039508513</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>453.2346393281674</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>286.8518074440008</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>308.9981080164343</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>260.2286635801781</v>
       </c>
       <c r="P6" t="n">
-        <v>338.9715673155518</v>
+        <v>507.7908635865857</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>286.2146745831255</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>6.993440978334917</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531412</v>
+        <v>142.6406917402992</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493115</v>
+        <v>238.6182836360081</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295333</v>
+        <v>262.0835870738655</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233377</v>
+        <v>261.3413366960945</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854534</v>
+        <v>225.2129474826626</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369855</v>
+        <v>168.9503184326936</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.452847899353443</v>
+        <v>32.69458435613845</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>562.7107934893642</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>520.9482342985597</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>63.93583437922369</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
